--- a/excel/OD matrix for students - flows + typePassenger_V4 (1).xlsx
+++ b/excel/OD matrix for students - flows + typePassenger_V4 (1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seppe/Documents/IP1b/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{803A9EE9-D43D-DA44-8D30-B524AFA2C156}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18C98320-541B-BB40-A1CB-35D63AD1F6A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -194,7 +194,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -210,6 +210,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -233,8 +239,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -517,8 +523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:M41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P37" sqref="P37"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1051,7 +1057,7 @@
       <c r="E28">
         <v>0</v>
       </c>
-      <c r="G28" s="5" t="s">
+      <c r="G28" s="7" t="s">
         <v>27</v>
       </c>
       <c r="H28" s="5">
@@ -1075,7 +1081,7 @@
         <f>(E5+H5)*2</f>
         <v>2160</v>
       </c>
-      <c r="G29" s="5" t="s">
+      <c r="G29" s="7" t="s">
         <v>32</v>
       </c>
       <c r="H29" s="5">
@@ -1098,7 +1104,7 @@
         <f>(C12+D12+F14+G14+D8)*2</f>
         <v>12186</v>
       </c>
-      <c r="G30" s="5" t="s">
+      <c r="G30" s="7" t="s">
         <v>28</v>
       </c>
       <c r="H30" s="5">
@@ -1124,7 +1130,7 @@
       <c r="E31">
         <v>0</v>
       </c>
-      <c r="G31" s="5" t="s">
+      <c r="G31" s="7" t="s">
         <v>33</v>
       </c>
       <c r="H31" s="5">
@@ -1150,7 +1156,7 @@
       <c r="E32">
         <v>0</v>
       </c>
-      <c r="G32" s="5" t="s">
+      <c r="G32" s="7" t="s">
         <v>29</v>
       </c>
       <c r="H32" s="5">
@@ -1173,7 +1179,7 @@
         <f>(I9+K9)*2</f>
         <v>9634</v>
       </c>
-      <c r="G33" s="5" t="s">
+      <c r="G33" s="7" t="s">
         <v>34</v>
       </c>
       <c r="H33" s="5">
@@ -1196,7 +1202,7 @@
       <c r="E34">
         <v>0</v>
       </c>
-      <c r="G34" s="5" t="s">
+      <c r="G34" s="7" t="s">
         <v>30</v>
       </c>
       <c r="H34" s="5">
@@ -1218,7 +1224,7 @@
       <c r="E35">
         <v>0</v>
       </c>
-      <c r="G35" s="6" t="s">
+      <c r="G35" s="7" t="s">
         <v>40</v>
       </c>
       <c r="H35" s="5"/>
@@ -1240,7 +1246,7 @@
       <c r="E36">
         <v>0</v>
       </c>
-      <c r="G36" s="6" t="s">
+      <c r="G36" s="7" t="s">
         <v>41</v>
       </c>
       <c r="H36" s="5"/>
@@ -1259,7 +1265,7 @@
       <c r="E37">
         <v>0</v>
       </c>
-      <c r="G37" s="6" t="s">
+      <c r="G37" s="7" t="s">
         <v>31</v>
       </c>
       <c r="H37" s="5">
@@ -1280,7 +1286,7 @@
         <f>SUM(E28:E37)</f>
         <v>23980</v>
       </c>
-      <c r="G38" s="6" t="s">
+      <c r="G38" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H38" s="5">
@@ -1288,7 +1294,7 @@
       </c>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="G39" s="6" t="s">
+      <c r="G39" s="7" t="s">
         <v>37</v>
       </c>
       <c r="H39" s="5">
@@ -1300,7 +1306,7 @@
       <c r="H40" s="5"/>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="G41" s="7" t="s">
+      <c r="G41" s="6" t="s">
         <v>36</v>
       </c>
       <c r="H41" s="5">
